--- a/report2.xlsx
+++ b/report2.xlsx
@@ -1,78 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sales Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sales Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Units Sold</t>
-  </si>
-  <si>
-    <t>Price per unit</t>
-  </si>
-  <si>
-    <t>Total Sales</t>
-  </si>
-  <si>
-    <t>Redmi</t>
-  </si>
-  <si>
-    <t>Samsung</t>
-  </si>
-  <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t>Motorola</t>
-  </si>
-  <si>
-    <t>Oppo</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -95,65 +64,153 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dashDot"/>
+      <right style="dashed"/>
+      <top style="double"/>
+      <bottom style="hair"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="bar2_graph.png"/>
-        <xdr:cNvPicPr>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <to>
+      <col>14</col>
+      <colOff>495300</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Picture 1" descr="bar2_graph.png"/>
+        <cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
+      </blipFill>
+      <spPr>
         <a:xfrm>
           <a:off x="4267200" y="0"/>
-          <a:ext cx="7620000" cy="4762500"/>
+          <a:ext cx="4762500" cy="2857500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
-          <a:avLst/>
+          <avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -440,94 +497,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Units Sold</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Price per unit</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Total Sales</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>Redmi</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5" t="n">
         <v>2000</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5" t="n">
         <v>100000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5" t="n">
         <v>4000</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5" t="n">
         <v>400000</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="n">
         <v>150</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5" t="n">
         <v>6000</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5" t="n">
         <v>900000</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n">
         <v>200</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5" t="n">
         <v>8000</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5" t="n">
         <v>1600000</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Oppo</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="n">
         <v>250</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5" t="n">
         <v>250000</v>
       </c>
     </row>
